--- a/DHS-DB-19-02-24-Q&A.xlsx
+++ b/DHS-DB-19-02-24-Q&A.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arpita.paul/Desktop/DHS-ISQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai.maryala/Desktop/dhs/ISQ-DHS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134132A9-784D-3C40-A8E0-0C0AEE3F6110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DED0AC-7F0D-0A4F-B4CE-2EB1F56B4A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{EF40D344-A226-D741-98D8-3BC4E2304095}"/>
+    <workbookView xWindow="1500" yWindow="960" windowWidth="27640" windowHeight="16940" xr2:uid="{EF40D344-A226-D741-98D8-3BC4E2304095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5199,15 +5199,16 @@
   <dimension ref="A1:F1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="186.5" customWidth="1"/>
+    <col min="4" max="4" width="71.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.3">
